--- a/KINX6AA1.xlsx
+++ b/KINX6AA1.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="25">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
   <si>
     <t xml:space="preserve">CPO (KINX6AA1) </t>
@@ -50,19 +50,19 @@
     <t>TYPE_TP</t>
   </si>
   <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPO (KINX6AA1) - TP/GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPO (KINX6AA1) - TP/GA </t>
+  </si>
+  <si>
     <t>lundi</t>
   </si>
   <si>
-    <t xml:space="preserve">CPO (KINX6AA1) - TP/GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPO (KINX6AA1) - TP/GA </t>
-  </si>
-  <si>
-    <t>jeudi</t>
-  </si>
-  <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>CPO (KINX6AA1)</t>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>15:45</t>
-  </si>
-  <si>
-    <t>11:0</t>
   </si>
   <si>
     <t xml:space="preserve">CPO  (KINX6AA1)   </t>
@@ -152,7 +149,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -229,7 +226,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>44942.0</v>
+        <v>46038.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>12</v>
@@ -291,7 +288,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>15</v>
@@ -345,7 +342,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>44947.0</v>
+        <v>46043.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>16</v>
@@ -376,7 +373,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>44949.0</v>
+        <v>46045.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>12</v>
@@ -438,7 +435,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>44952.0</v>
+        <v>46048.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>15</v>
@@ -492,7 +489,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>1</v>
@@ -546,7 +543,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="1">
-        <v>44956.0</v>
+        <v>46052.0</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>12</v>
@@ -585,7 +582,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>15</v>
@@ -639,7 +636,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>1</v>
@@ -701,7 +698,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>44984.0</v>
+        <v>46080.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>12</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>16</v>
@@ -771,7 +768,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>12</v>
@@ -833,7 +830,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>1</v>
@@ -864,7 +861,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>12</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="1">
-        <v>45010.0</v>
+        <v>46106.0</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>16</v>
@@ -957,7 +954,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>1</v>
@@ -972,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n" s="0">
         <v>2.0</v>
@@ -988,7 +985,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>12</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>16</v>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>1</v>
@@ -1089,7 +1086,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" t="s" s="0">
@@ -1112,7 +1109,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>12</v>
